--- a/default/importDataTagihan/tag_ukm2.xlsx
+++ b/default/importDataTagihan/tag_ukm2.xlsx
@@ -1706,19 +1706,19 @@
   <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" style="3" customWidth="1"/>
   </cols>
@@ -1730,26 +1730,26 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>286</v>
@@ -1759,7 +1759,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1773,33 +1773,33 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="1">
-        <v>41043</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="C3" s="1">
+        <v>43569</v>
+      </c>
+      <c r="D3" s="5">
         <v>75000000</v>
       </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
       <c r="F3">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>1250000</v>
       </c>
       <c r="H3">
-        <v>1250000</v>
-      </c>
-      <c r="I3">
         <v>600000</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N3" s="2">
-        <f>E3/H3</f>
+        <f>D3/G3</f>
         <v>60</v>
       </c>
       <c r="O3" s="5">
-        <f>H3+I3</f>
+        <f>G3+H3</f>
         <v>1850000</v>
       </c>
     </row>
@@ -1810,33 +1810,33 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" s="1">
-        <v>40976</v>
+      <c r="C4" s="1">
+        <v>43569</v>
+      </c>
+      <c r="D4">
+        <v>25000000</v>
       </c>
       <c r="E4">
-        <v>25000000</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>694500</v>
       </c>
       <c r="H4">
-        <v>694500</v>
-      </c>
-      <c r="I4">
         <v>200000</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N4" s="2">
-        <f>E4/H4</f>
+        <f>D4/G4</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O4" s="5">
-        <f>H4+I4</f>
+        <f>G4+H4</f>
         <v>894500</v>
       </c>
     </row>
@@ -1847,33 +1847,33 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>41227</v>
       </c>
+      <c r="D5">
+        <v>35000000</v>
+      </c>
       <c r="E5">
-        <v>35000000</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>729200</v>
       </c>
       <c r="H5">
-        <v>729200</v>
-      </c>
-      <c r="I5">
         <v>280000</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N5" s="2">
-        <f>E5/H5</f>
+        <f>D5/G5</f>
         <v>47.997805814591331</v>
       </c>
       <c r="O5" s="5">
-        <f>H5+I5</f>
+        <f>G5+H5</f>
         <v>1009200</v>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>285</v>
       </c>
       <c r="O6" s="5"/>
@@ -1896,33 +1896,33 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <v>41327</v>
       </c>
+      <c r="D7">
+        <v>80000000</v>
+      </c>
       <c r="E7">
-        <v>80000000</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>1333400</v>
       </c>
       <c r="H7">
-        <v>1333400</v>
-      </c>
-      <c r="I7">
         <v>640000</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N7" s="2">
-        <f>E7/H7</f>
+        <f>D7/G7</f>
         <v>59.997000149992502</v>
       </c>
       <c r="O7" s="5">
-        <f>H7+I7</f>
+        <f>G7+H7</f>
         <v>1973400</v>
       </c>
     </row>
@@ -1933,33 +1933,33 @@
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
         <v>41485</v>
       </c>
+      <c r="D8">
+        <v>50000000</v>
+      </c>
       <c r="E8">
-        <v>50000000</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>833400</v>
       </c>
       <c r="H8">
-        <v>833400</v>
-      </c>
-      <c r="I8">
         <v>500000</v>
       </c>
+      <c r="I8" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N8" s="2">
-        <f>E8/H8</f>
+        <f>D8/G8</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O8" s="5">
-        <f>H8+I8</f>
+        <f>G8+H8</f>
         <v>1333400</v>
       </c>
     </row>
@@ -1970,33 +1970,33 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D9" s="1">
-        <v>41089</v>
+      <c r="C9" s="1">
+        <v>43576</v>
+      </c>
+      <c r="D9">
+        <v>103800000</v>
       </c>
       <c r="E9">
-        <v>103800000</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="G9">
-        <v>73</v>
+        <v>2883400</v>
       </c>
       <c r="H9">
-        <v>2883400</v>
-      </c>
-      <c r="I9">
         <v>0</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N9" s="2">
-        <f>E9/H9</f>
+        <f>D9/G9</f>
         <v>35.999167649302905</v>
       </c>
       <c r="O9" s="5">
-        <f>H9+I9</f>
+        <f>G9+H9</f>
         <v>2883400</v>
       </c>
     </row>
@@ -2007,33 +2007,33 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" s="1">
-        <v>41856</v>
+      <c r="C10" s="1">
+        <v>43576</v>
+      </c>
+      <c r="D10">
+        <v>79450000</v>
       </c>
       <c r="E10">
-        <v>79450000</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G10">
-        <v>45</v>
+        <v>1324200</v>
       </c>
       <c r="H10">
-        <v>1324200</v>
-      </c>
-      <c r="I10">
         <v>635600</v>
       </c>
+      <c r="I10" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N10" s="2">
-        <f>E10/H10</f>
+        <f>D10/G10</f>
         <v>59.998489654130793</v>
       </c>
       <c r="O10" s="5">
-        <f>H10+I10</f>
+        <f>G10+H10</f>
         <v>1959800</v>
       </c>
     </row>
@@ -2044,33 +2044,33 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
         <v>41260</v>
       </c>
+      <c r="D11">
+        <v>105000000</v>
+      </c>
       <c r="E11">
-        <v>105000000</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G11">
-        <v>67</v>
+        <v>875000</v>
       </c>
       <c r="H11">
-        <v>875000</v>
-      </c>
-      <c r="I11">
         <v>840000</v>
       </c>
+      <c r="I11" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N11" s="2">
-        <f>E11/H11</f>
+        <f>D11/G11</f>
         <v>120</v>
       </c>
       <c r="O11" s="5">
-        <f>H11+I11</f>
+        <f>G11+H11</f>
         <v>1715000</v>
       </c>
     </row>
@@ -2081,33 +2081,33 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <v>40800</v>
       </c>
+      <c r="D12">
+        <v>30000000</v>
+      </c>
       <c r="E12">
-        <v>30000000</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>833400</v>
       </c>
       <c r="H12">
-        <v>833400</v>
-      </c>
-      <c r="I12">
         <v>300000</v>
       </c>
+      <c r="I12" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N12" s="2">
-        <f>E12/H12</f>
+        <f>D12/G12</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O12" s="5">
-        <f>H12+I12</f>
+        <f>G12+H12</f>
         <v>1133400</v>
       </c>
     </row>
@@ -2118,33 +2118,33 @@
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="1">
-        <v>41417</v>
+      <c r="C13" s="1">
+        <v>43575</v>
+      </c>
+      <c r="D13">
+        <v>350000000</v>
       </c>
       <c r="E13">
-        <v>350000000</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>14583400</v>
       </c>
       <c r="H13">
-        <v>14583400</v>
-      </c>
-      <c r="I13">
         <v>3500000</v>
       </c>
+      <c r="I13" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N13" s="2">
-        <f>E13/H13</f>
+        <f>D13/G13</f>
         <v>23.999890286215834</v>
       </c>
       <c r="O13" s="5">
-        <f>H13+I13</f>
+        <f>G13+H13</f>
         <v>18083400</v>
       </c>
     </row>
@@ -2155,33 +2155,33 @@
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
         <v>41860</v>
       </c>
+      <c r="D14">
+        <v>100000000</v>
+      </c>
       <c r="E14">
-        <v>100000000</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>1666700</v>
       </c>
       <c r="H14">
-        <v>1666700</v>
-      </c>
-      <c r="I14">
         <v>1000000</v>
       </c>
+      <c r="I14" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N14" s="2">
-        <f>E14/H14</f>
+        <f>D14/G14</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O14" s="5">
-        <f>H14+I14</f>
+        <f>G14+H14</f>
         <v>2666700</v>
       </c>
     </row>
@@ -2192,33 +2192,33 @@
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
         <v>41971</v>
       </c>
+      <c r="D15">
+        <v>50000000</v>
+      </c>
       <c r="E15">
-        <v>50000000</v>
+        <v>28</v>
       </c>
       <c r="F15">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>833400</v>
       </c>
       <c r="H15">
-        <v>833400</v>
-      </c>
-      <c r="I15">
         <v>500000</v>
       </c>
+      <c r="I15" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N15" s="2">
-        <f>E15/H15</f>
+        <f>D15/G15</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O15" s="5">
-        <f>H15+I15</f>
+        <f>G15+H15</f>
         <v>1333400</v>
       </c>
     </row>
@@ -2229,33 +2229,33 @@
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1">
         <v>42076</v>
       </c>
+      <c r="D16">
+        <v>50000000</v>
+      </c>
       <c r="E16">
-        <v>50000000</v>
+        <v>13</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G16">
-        <v>21</v>
+        <v>833400</v>
       </c>
       <c r="H16">
-        <v>833400</v>
-      </c>
-      <c r="I16">
         <v>500000</v>
       </c>
+      <c r="I16" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N16" s="2">
-        <f>E16/H16</f>
+        <f>D16/G16</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O16" s="5">
-        <f>H16+I16</f>
+        <f>G16+H16</f>
         <v>1333400</v>
       </c>
     </row>
@@ -2266,33 +2266,33 @@
       <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
         <v>42087</v>
       </c>
+      <c r="D17">
+        <v>80000000</v>
+      </c>
       <c r="E17">
-        <v>80000000</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G17">
-        <v>50</v>
+        <v>1333400</v>
       </c>
       <c r="H17">
-        <v>1333400</v>
-      </c>
-      <c r="I17">
         <v>800000</v>
       </c>
+      <c r="I17" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N17" s="2">
-        <f>E17/H17</f>
+        <f>D17/G17</f>
         <v>59.997000149992502</v>
       </c>
       <c r="O17" s="5">
-        <f>H17+I17</f>
+        <f>G17+H17</f>
         <v>2133400</v>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>285</v>
       </c>
       <c r="O18" s="5"/>
@@ -2315,33 +2315,33 @@
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
         <v>42108</v>
       </c>
+      <c r="D19">
+        <v>500000000</v>
+      </c>
       <c r="E19">
-        <v>500000000</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>8333400</v>
       </c>
       <c r="H19">
-        <v>8333400</v>
-      </c>
-      <c r="I19">
         <v>5000000</v>
       </c>
+      <c r="I19" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N19" s="2">
-        <f>E19/H19</f>
+        <f>D19/G19</f>
         <v>59.999520003839969</v>
       </c>
       <c r="O19" s="5">
-        <f>H19+I19</f>
+        <f>G19+H19</f>
         <v>13333400</v>
       </c>
     </row>
@@ -2352,33 +2352,33 @@
       <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
         <v>42118</v>
       </c>
+      <c r="D20">
+        <v>200000000</v>
+      </c>
       <c r="E20">
-        <v>200000000</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="G20">
-        <v>47</v>
+        <v>3333400</v>
       </c>
       <c r="H20">
-        <v>3333400</v>
-      </c>
-      <c r="I20">
         <v>2000000</v>
       </c>
+      <c r="I20" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N20" s="2">
-        <f>E20/H20</f>
+        <f>D20/G20</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O20" s="5">
-        <f>H20+I20</f>
+        <f>G20+H20</f>
         <v>5333400</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>285</v>
       </c>
       <c r="O21" s="5"/>
@@ -2401,33 +2401,33 @@
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
         <v>42190</v>
       </c>
+      <c r="D22">
+        <v>45000000</v>
+      </c>
       <c r="E22">
-        <v>45000000</v>
+        <v>7</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G22">
-        <v>29</v>
+        <v>937500</v>
       </c>
       <c r="H22">
-        <v>937500</v>
-      </c>
-      <c r="I22">
         <v>450000</v>
       </c>
+      <c r="I22" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N22" s="2">
-        <f>E22/H22</f>
+        <f>D22/G22</f>
         <v>48</v>
       </c>
       <c r="O22" s="5">
-        <f>H22+I22</f>
+        <f>G22+H22</f>
         <v>1387500</v>
       </c>
     </row>
@@ -2438,33 +2438,33 @@
       <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
         <v>42069</v>
       </c>
+      <c r="D23">
+        <v>50000000</v>
+      </c>
       <c r="E23">
-        <v>50000000</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G23">
-        <v>32</v>
+        <v>833400</v>
       </c>
       <c r="H23">
-        <v>833400</v>
-      </c>
-      <c r="I23">
         <v>500000</v>
       </c>
+      <c r="I23" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N23" s="2">
-        <f>E23/H23</f>
+        <f>D23/G23</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O23" s="5">
-        <f>H23+I23</f>
+        <f>G23+H23</f>
         <v>1333400</v>
       </c>
     </row>
@@ -2475,33 +2475,33 @@
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
         <v>42130</v>
       </c>
+      <c r="D24">
+        <v>100000000</v>
+      </c>
       <c r="E24">
-        <v>100000000</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>1666700</v>
       </c>
       <c r="H24">
-        <v>1666700</v>
-      </c>
-      <c r="I24">
         <v>1000000</v>
       </c>
+      <c r="I24" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N24" s="2">
-        <f>E24/H24</f>
+        <f>D24/G24</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O24" s="5">
-        <f>H24+I24</f>
+        <f>G24+H24</f>
         <v>2666700</v>
       </c>
     </row>
@@ -2512,33 +2512,33 @@
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
         <v>42314</v>
       </c>
+      <c r="D25">
+        <v>3000000</v>
+      </c>
       <c r="E25">
-        <v>3000000</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>250000</v>
       </c>
       <c r="H25">
-        <v>250000</v>
-      </c>
-      <c r="I25">
         <v>30000</v>
       </c>
+      <c r="I25" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N25" s="2">
-        <f>E25/H25</f>
+        <f>D25/G25</f>
         <v>12</v>
       </c>
       <c r="O25" s="5">
-        <f>H25+I25</f>
+        <f>G25+H25</f>
         <v>280000</v>
       </c>
     </row>
@@ -2549,33 +2549,33 @@
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="1">
         <v>42174</v>
       </c>
+      <c r="D26">
+        <v>60000000</v>
+      </c>
       <c r="E26">
-        <v>60000000</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G26">
-        <v>45</v>
+        <v>1000000</v>
       </c>
       <c r="H26">
-        <v>1000000</v>
-      </c>
-      <c r="I26">
         <v>600000</v>
       </c>
+      <c r="I26" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N26" s="2">
-        <f>E26/H26</f>
+        <f>D26/G26</f>
         <v>60</v>
       </c>
       <c r="O26" s="5">
-        <f>H26+I26</f>
+        <f>G26+H26</f>
         <v>1600000</v>
       </c>
     </row>
@@ -2586,33 +2586,33 @@
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="1">
         <v>42179</v>
       </c>
+      <c r="D27">
+        <v>50000000</v>
+      </c>
       <c r="E27">
-        <v>50000000</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G27">
-        <v>29</v>
+        <v>833400</v>
       </c>
       <c r="H27">
-        <v>833400</v>
-      </c>
-      <c r="I27">
         <v>500000</v>
       </c>
+      <c r="I27" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N27" s="2">
-        <f>E27/H27</f>
+        <f>D27/G27</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O27" s="5">
-        <f>H27+I27</f>
+        <f>G27+H27</f>
         <v>1333400</v>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>285</v>
       </c>
       <c r="O28" s="5"/>
@@ -2635,33 +2635,33 @@
       <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1">
         <v>42011</v>
       </c>
+      <c r="D29">
+        <v>84000000</v>
+      </c>
       <c r="E29">
-        <v>84000000</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G29">
-        <v>45</v>
+        <v>1400000</v>
       </c>
       <c r="H29">
-        <v>1400000</v>
-      </c>
-      <c r="I29">
         <v>840000</v>
       </c>
+      <c r="I29" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N29" s="2">
-        <f>E29/H29</f>
+        <f>D29/G29</f>
         <v>60</v>
       </c>
       <c r="O29" s="5">
-        <f>H29+I29</f>
+        <f>G29+H29</f>
         <v>2240000</v>
       </c>
     </row>
@@ -2672,33 +2672,33 @@
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="1">
         <v>42223</v>
       </c>
+      <c r="D30">
+        <v>40000000</v>
+      </c>
       <c r="E30">
-        <v>40000000</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <v>45</v>
+        <v>833400</v>
       </c>
       <c r="H30">
-        <v>833400</v>
-      </c>
-      <c r="I30">
         <v>440000</v>
       </c>
+      <c r="I30" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N30" s="2">
-        <f>E30/H30</f>
+        <f>D30/G30</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O30" s="5">
-        <f>H30+I30</f>
+        <f>G30+H30</f>
         <v>1273400</v>
       </c>
     </row>
@@ -2709,33 +2709,33 @@
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
         <v>42215</v>
       </c>
+      <c r="D31">
+        <v>78000000</v>
+      </c>
       <c r="E31">
-        <v>78000000</v>
+        <v>30</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G31">
-        <v>41</v>
+        <v>1300000</v>
       </c>
       <c r="H31">
-        <v>1300000</v>
-      </c>
-      <c r="I31">
         <v>780000</v>
       </c>
+      <c r="I31" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N31" s="2">
-        <f>E31/H31</f>
+        <f>D31/G31</f>
         <v>60</v>
       </c>
       <c r="O31" s="5">
-        <f>H31+I31</f>
+        <f>G31+H31</f>
         <v>2080000</v>
       </c>
     </row>
@@ -2746,33 +2746,33 @@
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="1">
         <v>42236</v>
       </c>
+      <c r="D32">
+        <v>40000000</v>
+      </c>
       <c r="E32">
-        <v>40000000</v>
+        <v>20</v>
       </c>
       <c r="F32">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G32">
-        <v>44</v>
+        <v>833400</v>
       </c>
       <c r="H32">
-        <v>833400</v>
-      </c>
-      <c r="I32">
         <v>400000</v>
       </c>
+      <c r="I32" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N32" s="2">
-        <f>E32/H32</f>
+        <f>D32/G32</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O32" s="5">
-        <f>H32+I32</f>
+        <f>G32+H32</f>
         <v>1233400</v>
       </c>
     </row>
@@ -2783,33 +2783,33 @@
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="1">
         <v>42268</v>
       </c>
+      <c r="D33">
+        <v>60000000</v>
+      </c>
       <c r="E33">
-        <v>60000000</v>
+        <v>21</v>
       </c>
       <c r="F33">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G33">
-        <v>29</v>
+        <v>1000000</v>
       </c>
       <c r="H33">
-        <v>1000000</v>
-      </c>
-      <c r="I33">
         <v>600000</v>
       </c>
+      <c r="I33" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N33" s="2">
-        <f>E33/H33</f>
+        <f>D33/G33</f>
         <v>60</v>
       </c>
       <c r="O33" s="5">
-        <f>H33+I33</f>
+        <f>G33+H33</f>
         <v>1600000</v>
       </c>
     </row>
@@ -2820,33 +2820,33 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="1">
         <v>42195</v>
       </c>
+      <c r="D34">
+        <v>50000000</v>
+      </c>
       <c r="E34">
-        <v>50000000</v>
+        <v>7</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="G34">
-        <v>41</v>
+        <v>833400</v>
       </c>
       <c r="H34">
-        <v>833400</v>
-      </c>
-      <c r="I34">
         <v>500000</v>
       </c>
+      <c r="I34" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N34" s="2">
-        <f>E34/H34</f>
+        <f>D34/G34</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O34" s="5">
-        <f>H34+I34</f>
+        <f>G34+H34</f>
         <v>1333400</v>
       </c>
     </row>
@@ -2857,33 +2857,33 @@
       <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="1">
         <v>42297</v>
       </c>
+      <c r="D35">
+        <v>60000000</v>
+      </c>
       <c r="E35">
-        <v>60000000</v>
+        <v>20</v>
       </c>
       <c r="F35">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G35">
-        <v>44</v>
+        <v>1250000</v>
       </c>
       <c r="H35">
-        <v>1250000</v>
-      </c>
-      <c r="I35">
         <v>600000</v>
       </c>
+      <c r="I35" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N35" s="2">
-        <f>E35/H35</f>
+        <f>D35/G35</f>
         <v>48</v>
       </c>
       <c r="O35" s="5">
-        <f>H35+I35</f>
+        <f>G35+H35</f>
         <v>1850000</v>
       </c>
     </row>
@@ -2894,33 +2894,33 @@
       <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="1">
         <v>42306</v>
       </c>
+      <c r="D36">
+        <v>46000000</v>
+      </c>
       <c r="E36">
-        <v>46000000</v>
+        <v>29</v>
       </c>
       <c r="F36">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="G36">
-        <v>11</v>
+        <v>958400</v>
       </c>
       <c r="H36">
-        <v>958400</v>
-      </c>
-      <c r="I36">
         <v>460000</v>
       </c>
+      <c r="I36" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N36" s="2">
-        <f>E36/H36</f>
+        <f>D36/G36</f>
         <v>47.996661101836395</v>
       </c>
       <c r="O36" s="5">
-        <f>H36+I36</f>
+        <f>G36+H36</f>
         <v>1418400</v>
       </c>
     </row>
@@ -2931,33 +2931,33 @@
       <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="1">
         <v>42383</v>
       </c>
+      <c r="D37">
+        <v>50000000</v>
+      </c>
       <c r="E37">
-        <v>50000000</v>
+        <v>14</v>
       </c>
       <c r="F37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37">
-        <v>13</v>
+        <v>2083400</v>
       </c>
       <c r="H37">
-        <v>2083400</v>
-      </c>
-      <c r="I37">
         <v>500000</v>
       </c>
+      <c r="I37" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N37" s="2">
-        <f>E37/H37</f>
+        <f>D37/G37</f>
         <v>23.999232024575214</v>
       </c>
       <c r="O37" s="5">
-        <f>H37+I37</f>
+        <f>G37+H37</f>
         <v>2583400</v>
       </c>
     </row>
@@ -2968,33 +2968,33 @@
       <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="1">
         <v>42395</v>
       </c>
+      <c r="D38">
+        <v>50000000</v>
+      </c>
       <c r="E38">
-        <v>50000000</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>833400</v>
       </c>
       <c r="H38">
-        <v>833400</v>
-      </c>
-      <c r="I38">
         <v>500000</v>
       </c>
+      <c r="I38" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N38" s="2">
-        <f>E38/H38</f>
+        <f>D38/G38</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O38" s="5">
-        <f>H38+I38</f>
+        <f>G38+H38</f>
         <v>1333400</v>
       </c>
     </row>
@@ -3005,33 +3005,33 @@
       <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="1">
         <v>42396</v>
       </c>
+      <c r="D39">
+        <v>60000000</v>
+      </c>
       <c r="E39">
-        <v>60000000</v>
+        <v>27</v>
       </c>
       <c r="F39">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>12</v>
+        <v>1000000</v>
       </c>
       <c r="H39">
-        <v>1000000</v>
-      </c>
-      <c r="I39">
         <v>600000</v>
       </c>
+      <c r="I39" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N39" s="2">
-        <f>E39/H39</f>
+        <f>D39/G39</f>
         <v>60</v>
       </c>
       <c r="O39" s="5">
-        <f>H39+I39</f>
+        <f>G39+H39</f>
         <v>1600000</v>
       </c>
     </row>
@@ -3042,33 +3042,33 @@
       <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="1">
         <v>42645</v>
       </c>
+      <c r="D40">
+        <v>30000000</v>
+      </c>
       <c r="E40">
-        <v>30000000</v>
+        <v>10</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G40">
-        <v>38</v>
+        <v>829900</v>
       </c>
       <c r="H40">
-        <v>829900</v>
-      </c>
-      <c r="I40">
         <v>300000</v>
       </c>
+      <c r="I40" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N40" s="2">
-        <f>E40/H40</f>
+        <f>D40/G40</f>
         <v>36.148933606458613</v>
       </c>
       <c r="O40" s="5">
-        <f>H40+I40</f>
+        <f>G40+H40</f>
         <v>1129900</v>
       </c>
     </row>
@@ -3079,33 +3079,33 @@
       <c r="B41" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="1">
         <v>42645</v>
       </c>
+      <c r="D41">
+        <v>30000000</v>
+      </c>
       <c r="E41">
-        <v>30000000</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G41">
-        <v>39</v>
+        <v>833400</v>
       </c>
       <c r="H41">
-        <v>833400</v>
-      </c>
-      <c r="I41">
         <v>300000</v>
       </c>
+      <c r="I41" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N41" s="2">
-        <f>E41/H41</f>
+        <f>D41/G41</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O41" s="5">
-        <f>H41+I41</f>
+        <f>G41+H41</f>
         <v>1133400</v>
       </c>
     </row>
@@ -3116,33 +3116,33 @@
       <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="1">
         <v>42419</v>
       </c>
+      <c r="D42">
+        <v>50000000</v>
+      </c>
       <c r="E42">
-        <v>50000000</v>
+        <v>19</v>
       </c>
       <c r="F42">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G42">
-        <v>31</v>
+        <v>833400</v>
       </c>
       <c r="H42">
-        <v>833400</v>
-      </c>
-      <c r="I42">
         <v>500000</v>
       </c>
+      <c r="I42" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N42" s="2">
-        <f>E42/H42</f>
+        <f>D42/G42</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O42" s="5">
-        <f>H42+I42</f>
+        <f>G42+H42</f>
         <v>1333400</v>
       </c>
     </row>
@@ -3153,33 +3153,33 @@
       <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="1">
         <v>42424</v>
       </c>
+      <c r="D43">
+        <v>50000000</v>
+      </c>
       <c r="E43">
-        <v>50000000</v>
+        <v>24</v>
       </c>
       <c r="F43">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G43">
-        <v>35</v>
+        <v>1041700</v>
       </c>
       <c r="H43">
-        <v>1041700</v>
-      </c>
-      <c r="I43">
         <v>500000</v>
       </c>
+      <c r="I43" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N43" s="2">
-        <f>E43/H43</f>
+        <f>D43/G43</f>
         <v>47.998464049150428</v>
       </c>
       <c r="O43" s="5">
-        <f>H43+I43</f>
+        <f>G43+H43</f>
         <v>1541700</v>
       </c>
     </row>
@@ -3190,33 +3190,33 @@
       <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="1">
         <v>42425</v>
       </c>
+      <c r="D44">
+        <v>100000000</v>
+      </c>
       <c r="E44">
-        <v>100000000</v>
+        <v>25</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G44">
-        <v>21</v>
+        <v>1666700</v>
       </c>
       <c r="H44">
-        <v>1666700</v>
-      </c>
-      <c r="I44">
         <v>1000000</v>
       </c>
+      <c r="I44" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N44" s="2">
-        <f>E44/H44</f>
+        <f>D44/G44</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O44" s="5">
-        <f>H44+I44</f>
+        <f>G44+H44</f>
         <v>2666700</v>
       </c>
     </row>
@@ -3227,33 +3227,33 @@
       <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="1">
         <v>42585</v>
       </c>
+      <c r="D45">
+        <v>25000000</v>
+      </c>
       <c r="E45">
-        <v>25000000</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="G45">
-        <v>37</v>
+        <v>694500</v>
       </c>
       <c r="H45">
-        <v>694500</v>
-      </c>
-      <c r="I45">
         <v>250000</v>
       </c>
+      <c r="I45" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N45" s="2">
-        <f>E45/H45</f>
+        <f>D45/G45</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O45" s="5">
-        <f>H45+I45</f>
+        <f>G45+H45</f>
         <v>944500</v>
       </c>
     </row>
@@ -3264,33 +3264,33 @@
       <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="1">
         <v>42445</v>
       </c>
+      <c r="D46">
+        <v>60000000</v>
+      </c>
       <c r="E46">
-        <v>60000000</v>
+        <v>16</v>
       </c>
       <c r="F46">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G46">
-        <v>28</v>
+        <v>1000000</v>
       </c>
       <c r="H46">
-        <v>1000000</v>
-      </c>
-      <c r="I46">
         <v>600000</v>
       </c>
+      <c r="I46" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N46" s="2">
-        <f>E46/H46</f>
+        <f>D46/G46</f>
         <v>60</v>
       </c>
       <c r="O46" s="5">
-        <f>H46+I46</f>
+        <f>G46+H46</f>
         <v>1600000</v>
       </c>
     </row>
@@ -3301,33 +3301,33 @@
       <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="1">
         <v>42494</v>
       </c>
+      <c r="D47">
+        <v>50000000</v>
+      </c>
       <c r="E47">
-        <v>50000000</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G47">
-        <v>26</v>
+        <v>833400</v>
       </c>
       <c r="H47">
-        <v>833400</v>
-      </c>
-      <c r="I47">
         <v>500000</v>
       </c>
+      <c r="I47" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N47" s="2">
-        <f>E47/H47</f>
+        <f>D47/G47</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O47" s="5">
-        <f>H47+I47</f>
+        <f>G47+H47</f>
         <v>1333400</v>
       </c>
     </row>
@@ -3338,33 +3338,33 @@
       <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="1">
         <v>42480</v>
       </c>
+      <c r="D48">
+        <v>60000000</v>
+      </c>
       <c r="E48">
-        <v>60000000</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G48">
-        <v>21</v>
+        <v>1000000</v>
       </c>
       <c r="H48">
-        <v>1000000</v>
-      </c>
-      <c r="I48">
         <v>600000</v>
       </c>
+      <c r="I48" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N48" s="2">
-        <f>E48/H48</f>
+        <f>D48/G48</f>
         <v>60</v>
       </c>
       <c r="O48" s="5">
-        <f>H48+I48</f>
+        <f>G48+H48</f>
         <v>1600000</v>
       </c>
     </row>
@@ -3375,33 +3375,33 @@
       <c r="B49" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="1">
         <v>42434</v>
       </c>
+      <c r="D49">
+        <v>250000000</v>
+      </c>
       <c r="E49">
-        <v>250000000</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G49">
-        <v>15</v>
+        <v>4166700</v>
       </c>
       <c r="H49">
-        <v>4166700</v>
-      </c>
-      <c r="I49">
         <v>2500000</v>
       </c>
+      <c r="I49" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N49" s="2">
-        <f>E49/H49</f>
+        <f>D49/G49</f>
         <v>59.999520003839969</v>
       </c>
       <c r="O49" s="5">
-        <f>H49+I49</f>
+        <f>G49+H49</f>
         <v>6666700</v>
       </c>
     </row>
@@ -3412,33 +3412,33 @@
       <c r="B50" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="1">
         <v>42618</v>
       </c>
+      <c r="D50">
+        <v>50000000</v>
+      </c>
       <c r="E50">
-        <v>50000000</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G50">
-        <v>33</v>
+        <v>833400</v>
       </c>
       <c r="H50">
-        <v>833400</v>
-      </c>
-      <c r="I50">
         <v>500000</v>
       </c>
+      <c r="I50" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N50" s="2">
-        <f>E50/H50</f>
+        <f>D50/G50</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O50" s="5">
-        <f>H50+I50</f>
+        <f>G50+H50</f>
         <v>1333400</v>
       </c>
     </row>
@@ -3449,33 +3449,33 @@
       <c r="B51" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="1">
         <v>42648</v>
       </c>
+      <c r="D51">
+        <v>50000000</v>
+      </c>
       <c r="E51">
-        <v>50000000</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>12</v>
+        <v>2083400</v>
       </c>
       <c r="H51">
-        <v>2083400</v>
-      </c>
-      <c r="I51">
         <v>500000</v>
       </c>
+      <c r="I51" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N51" s="2">
-        <f>E51/H51</f>
+        <f>D51/G51</f>
         <v>23.999232024575214</v>
       </c>
       <c r="O51" s="5">
-        <f>H51+I51</f>
+        <f>G51+H51</f>
         <v>2583400</v>
       </c>
     </row>
@@ -3486,33 +3486,33 @@
       <c r="B52" t="s">
         <v>109</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="1">
         <v>42508</v>
       </c>
+      <c r="D52">
+        <v>100000000</v>
+      </c>
       <c r="E52">
-        <v>100000000</v>
+        <v>18</v>
       </c>
       <c r="F52">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G52">
-        <v>34</v>
+        <v>1666700</v>
       </c>
       <c r="H52">
-        <v>1666700</v>
-      </c>
-      <c r="I52">
         <v>1000000</v>
       </c>
+      <c r="I52" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N52" s="2">
-        <f>E52/H52</f>
+        <f>D52/G52</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O52" s="5">
-        <f>H52+I52</f>
+        <f>G52+H52</f>
         <v>2666700</v>
       </c>
     </row>
@@ -3523,33 +3523,33 @@
       <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="1">
         <v>42508</v>
       </c>
+      <c r="D53">
+        <v>35000000</v>
+      </c>
       <c r="E53">
-        <v>35000000</v>
+        <v>19</v>
       </c>
       <c r="F53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G53">
-        <v>16</v>
+        <v>972300</v>
       </c>
       <c r="H53">
-        <v>972300</v>
-      </c>
-      <c r="I53">
         <v>350000</v>
       </c>
+      <c r="I53" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N53" s="2">
-        <f>E53/H53</f>
+        <f>D53/G53</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O53" s="5">
-        <f>H53+I53</f>
+        <f>G53+H53</f>
         <v>1322300</v>
       </c>
     </row>
@@ -3560,33 +3560,33 @@
       <c r="B54" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="1">
         <v>42516</v>
       </c>
+      <c r="D54">
+        <v>20000000</v>
+      </c>
       <c r="E54">
-        <v>20000000</v>
+        <v>26</v>
       </c>
       <c r="F54">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G54">
-        <v>33</v>
+        <v>555600</v>
       </c>
       <c r="H54">
-        <v>555600</v>
-      </c>
-      <c r="I54">
         <v>200000</v>
       </c>
+      <c r="I54" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N54" s="2">
-        <f>E54/H54</f>
+        <f>D54/G54</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O54" s="5">
-        <f>H54+I54</f>
+        <f>G54+H54</f>
         <v>755600</v>
       </c>
     </row>
@@ -3597,33 +3597,33 @@
       <c r="B55" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55" s="1">
         <v>42520</v>
       </c>
+      <c r="D55">
+        <v>150000000</v>
+      </c>
       <c r="E55">
-        <v>150000000</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G55">
-        <v>34</v>
+        <v>2500000</v>
       </c>
       <c r="H55">
-        <v>2500000</v>
-      </c>
-      <c r="I55">
         <v>1500000</v>
       </c>
+      <c r="I55" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N55" s="2">
-        <f>E55/H55</f>
+        <f>D55/G55</f>
         <v>60</v>
       </c>
       <c r="O55" s="5">
-        <f>H55+I55</f>
+        <f>G55+H55</f>
         <v>4000000</v>
       </c>
     </row>
@@ -3634,33 +3634,33 @@
       <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="1">
         <v>42557</v>
       </c>
+      <c r="D56">
+        <v>25000000</v>
+      </c>
       <c r="E56">
-        <v>25000000</v>
+        <v>7</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G56">
-        <v>33</v>
+        <v>694500</v>
       </c>
       <c r="H56">
-        <v>694500</v>
-      </c>
-      <c r="I56">
         <v>250000</v>
       </c>
+      <c r="I56" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N56" s="2">
-        <f>E56/H56</f>
+        <f>D56/G56</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O56" s="5">
-        <f>H56+I56</f>
+        <f>G56+H56</f>
         <v>944500</v>
       </c>
     </row>
@@ -3671,33 +3671,33 @@
       <c r="B57" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="1">
         <v>42548</v>
       </c>
+      <c r="D57">
+        <v>50000000</v>
+      </c>
       <c r="E57">
-        <v>50000000</v>
+        <v>27</v>
       </c>
       <c r="F57">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G57">
-        <v>34</v>
+        <v>833400</v>
       </c>
       <c r="H57">
-        <v>833400</v>
-      </c>
-      <c r="I57">
         <v>500000</v>
       </c>
+      <c r="I57" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N57" s="2">
-        <f>E57/H57</f>
+        <f>D57/G57</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O57" s="5">
-        <f>H57+I57</f>
+        <f>G57+H57</f>
         <v>1333400</v>
       </c>
     </row>
@@ -3708,33 +3708,33 @@
       <c r="B58" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="1">
         <v>42551</v>
       </c>
+      <c r="D58">
+        <v>30000000</v>
+      </c>
       <c r="E58">
-        <v>30000000</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>6</v>
+        <v>833400</v>
       </c>
       <c r="H58">
-        <v>833400</v>
-      </c>
-      <c r="I58">
         <v>300000</v>
       </c>
+      <c r="I58" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N58" s="2">
-        <f>E58/H58</f>
+        <f>D58/G58</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O58" s="5">
-        <f>H58+I58</f>
+        <f>G58+H58</f>
         <v>1133400</v>
       </c>
     </row>
@@ -3745,33 +3745,33 @@
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="1">
         <v>42552</v>
       </c>
+      <c r="D59">
+        <v>100000000</v>
+      </c>
       <c r="E59">
-        <v>100000000</v>
+        <v>23</v>
       </c>
       <c r="F59">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G59">
-        <v>33</v>
+        <v>2083400</v>
       </c>
       <c r="H59">
-        <v>2083400</v>
-      </c>
-      <c r="I59">
         <v>1000000</v>
       </c>
+      <c r="I59" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N59" s="2">
-        <f>E59/H59</f>
+        <f>D59/G59</f>
         <v>47.998464049150428</v>
       </c>
       <c r="O59" s="5">
-        <f>H59+I59</f>
+        <f>G59+H59</f>
         <v>3083400</v>
       </c>
     </row>
@@ -3782,33 +3782,33 @@
       <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" s="1">
         <v>42553</v>
       </c>
+      <c r="D60">
+        <v>50000000</v>
+      </c>
       <c r="E60">
-        <v>50000000</v>
+        <v>25</v>
       </c>
       <c r="F60">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="G60">
-        <v>53</v>
+        <v>833400</v>
       </c>
       <c r="H60">
-        <v>833400</v>
-      </c>
-      <c r="I60">
         <v>500000</v>
       </c>
+      <c r="I60" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N60" s="2">
-        <f>E60/H60</f>
+        <f>D60/G60</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O60" s="5">
-        <f>H60+I60</f>
+        <f>G60+H60</f>
         <v>1333400</v>
       </c>
     </row>
@@ -3819,33 +3819,33 @@
       <c r="B61" t="s">
         <v>127</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="1">
         <v>42554</v>
       </c>
+      <c r="D61">
+        <v>35000000</v>
+      </c>
       <c r="E61">
-        <v>35000000</v>
+        <v>25</v>
       </c>
       <c r="F61">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G61">
-        <v>52</v>
+        <v>583400</v>
       </c>
       <c r="H61">
-        <v>583400</v>
-      </c>
-      <c r="I61">
         <v>350000</v>
       </c>
+      <c r="I61" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N61" s="2">
-        <f>E61/H61</f>
+        <f>D61/G61</f>
         <v>59.993143640726771</v>
       </c>
       <c r="O61" s="5">
-        <f>H61+I61</f>
+        <f>G61+H61</f>
         <v>933400</v>
       </c>
     </row>
@@ -3856,29 +3856,29 @@
       <c r="B62" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="1">
         <v>42555</v>
       </c>
+      <c r="D62">
+        <v>50000000</v>
+      </c>
       <c r="E62">
-        <v>50000000</v>
+        <v>2</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="G62">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
         <v>500000</v>
       </c>
+      <c r="I62" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="O62" s="5">
-        <f>H62+I62</f>
+        <f>G62+H62</f>
         <v>500000</v>
       </c>
     </row>
@@ -3889,33 +3889,33 @@
       <c r="B63" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="1">
         <v>42556</v>
       </c>
+      <c r="D63">
+        <v>55000000</v>
+      </c>
       <c r="E63">
-        <v>55000000</v>
+        <v>13</v>
       </c>
       <c r="F63">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G63">
-        <v>42</v>
+        <v>916700</v>
       </c>
       <c r="H63">
-        <v>916700</v>
-      </c>
-      <c r="I63">
         <v>550000</v>
       </c>
+      <c r="I63" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N63" s="2">
-        <f>E63/H63</f>
+        <f>D63/G63</f>
         <v>59.997818261154137</v>
       </c>
       <c r="O63" s="5">
-        <f>H63+I63</f>
+        <f>G63+H63</f>
         <v>1466700</v>
       </c>
     </row>
@@ -3926,11 +3926,11 @@
       <c r="B64" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" s="1">
         <v>42557</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O64" s="5"/>
     </row>
@@ -3941,33 +3941,33 @@
       <c r="B65" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="1">
         <v>42558</v>
       </c>
+      <c r="D65">
+        <v>135000000</v>
+      </c>
       <c r="E65">
-        <v>135000000</v>
+        <v>5</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>2250000</v>
       </c>
       <c r="H65">
-        <v>2250000</v>
-      </c>
-      <c r="I65">
         <v>1485000</v>
       </c>
+      <c r="I65" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N65" s="2">
-        <f>E65/H65</f>
+        <f>D65/G65</f>
         <v>60</v>
       </c>
       <c r="O65" s="5">
-        <f>H65+I65</f>
+        <f>G65+H65</f>
         <v>3735000</v>
       </c>
     </row>
@@ -3978,33 +3978,33 @@
       <c r="B66" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D66" s="1">
+      <c r="C66" s="1">
         <v>42559</v>
       </c>
+      <c r="D66">
+        <v>40000000</v>
+      </c>
       <c r="E66">
-        <v>40000000</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G66">
-        <v>19</v>
+        <v>833400</v>
       </c>
       <c r="H66">
-        <v>833400</v>
-      </c>
-      <c r="I66">
         <v>440000</v>
       </c>
+      <c r="I66" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N66" s="2">
-        <f>E66/H66</f>
+        <f>D66/G66</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O66" s="5">
-        <f>H66+I66</f>
+        <f>G66+H66</f>
         <v>1273400</v>
       </c>
     </row>
@@ -4015,33 +4015,33 @@
       <c r="B67" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="C67" s="1">
         <v>42560</v>
       </c>
+      <c r="D67">
+        <v>75000000</v>
+      </c>
       <c r="E67">
-        <v>75000000</v>
+        <v>9</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>34</v>
+        <v>1562500</v>
       </c>
       <c r="H67">
-        <v>1562500</v>
-      </c>
-      <c r="I67">
         <v>825000</v>
       </c>
+      <c r="I67" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N67" s="2">
-        <f>E67/H67</f>
+        <f>D67/G67</f>
         <v>48</v>
       </c>
       <c r="O67" s="5">
-        <f>H67+I67</f>
+        <f>G67+H67</f>
         <v>2387500</v>
       </c>
     </row>
@@ -4052,33 +4052,33 @@
       <c r="B68" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D68" s="1">
+      <c r="C68" s="1">
         <v>42561</v>
       </c>
+      <c r="D68">
+        <v>60000000</v>
+      </c>
       <c r="E68">
-        <v>60000000</v>
+        <v>23</v>
       </c>
       <c r="F68">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>34</v>
+        <v>1000000</v>
       </c>
       <c r="H68">
-        <v>1000000</v>
-      </c>
-      <c r="I68">
         <v>660000</v>
       </c>
+      <c r="I68" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N68" s="2">
-        <f>E68/H68</f>
+        <f>D68/G68</f>
         <v>60</v>
       </c>
       <c r="O68" s="5">
-        <f>H68+I68</f>
+        <f>G68+H68</f>
         <v>1660000</v>
       </c>
     </row>
@@ -4089,33 +4089,33 @@
       <c r="B69" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D69" s="1">
+      <c r="C69" s="1">
         <v>42562</v>
       </c>
+      <c r="D69">
+        <v>100000000</v>
+      </c>
       <c r="E69">
-        <v>100000000</v>
+        <v>7</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G69">
-        <v>40</v>
+        <v>1666700</v>
       </c>
       <c r="H69">
-        <v>1666700</v>
-      </c>
-      <c r="I69">
         <v>1100000</v>
       </c>
+      <c r="I69" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N69" s="2">
-        <f>E69/H69</f>
+        <f>D69/G69</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O69" s="5">
-        <f>H69+I69</f>
+        <f>G69+H69</f>
         <v>2766700</v>
       </c>
     </row>
@@ -4126,33 +4126,33 @@
       <c r="B70" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="1">
         <v>42563</v>
       </c>
+      <c r="D70">
+        <v>60000000</v>
+      </c>
       <c r="E70">
-        <v>60000000</v>
+        <v>12</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G70">
-        <v>43</v>
+        <v>1000000</v>
       </c>
       <c r="H70">
-        <v>1000000</v>
-      </c>
-      <c r="I70">
         <v>660000</v>
       </c>
+      <c r="I70" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N70" s="2">
-        <f>E70/H70</f>
+        <f>D70/G70</f>
         <v>60</v>
       </c>
       <c r="O70" s="5">
-        <f>H70+I70</f>
+        <f>G70+H70</f>
         <v>1660000</v>
       </c>
     </row>
@@ -4163,33 +4163,33 @@
       <c r="B71" t="s">
         <v>147</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="1">
         <v>42564</v>
       </c>
+      <c r="D71">
+        <v>40000000</v>
+      </c>
       <c r="E71">
-        <v>40000000</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G71">
-        <v>39</v>
+        <v>833400</v>
       </c>
       <c r="H71">
-        <v>833400</v>
-      </c>
-      <c r="I71">
         <v>440000</v>
       </c>
+      <c r="I71" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N71" s="2">
-        <f>E71/H71</f>
+        <f>D71/G71</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O71" s="5">
-        <f>H71+I71</f>
+        <f>G71+H71</f>
         <v>1273400</v>
       </c>
     </row>
@@ -4200,33 +4200,33 @@
       <c r="B72" t="s">
         <v>149</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D72" s="1">
+      <c r="C72" s="1">
         <v>42565</v>
       </c>
+      <c r="D72">
+        <v>60000000</v>
+      </c>
       <c r="E72">
-        <v>60000000</v>
+        <v>10</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="G72">
-        <v>38</v>
+        <v>1000000</v>
       </c>
       <c r="H72">
-        <v>1000000</v>
-      </c>
-      <c r="I72">
         <v>660000</v>
       </c>
+      <c r="I72" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N72" s="2">
-        <f>E72/H72</f>
+        <f>D72/G72</f>
         <v>60</v>
       </c>
       <c r="O72" s="5">
-        <f>H72+I72</f>
+        <f>G72+H72</f>
         <v>1660000</v>
       </c>
     </row>
@@ -4237,33 +4237,33 @@
       <c r="B73" t="s">
         <v>151</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C73" s="1">
         <v>42566</v>
       </c>
+      <c r="D73">
+        <v>70000000</v>
+      </c>
       <c r="E73">
-        <v>70000000</v>
+        <v>9</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G73">
-        <v>34</v>
+        <v>1166700</v>
       </c>
       <c r="H73">
-        <v>1166700</v>
-      </c>
-      <c r="I73">
         <v>770000</v>
       </c>
+      <c r="I73" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N73" s="2">
-        <f>E73/H73</f>
+        <f>D73/G73</f>
         <v>59.998285763263908</v>
       </c>
       <c r="O73" s="5">
-        <f>H73+I73</f>
+        <f>G73+H73</f>
         <v>1936700</v>
       </c>
     </row>
@@ -4274,33 +4274,33 @@
       <c r="B74" t="s">
         <v>153</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="C74" s="1">
         <v>42567</v>
       </c>
+      <c r="D74">
+        <v>50000000</v>
+      </c>
       <c r="E74">
-        <v>50000000</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="G74">
-        <v>38</v>
+        <v>833400</v>
       </c>
       <c r="H74">
-        <v>833400</v>
-      </c>
-      <c r="I74">
         <v>550000</v>
       </c>
+      <c r="I74" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N74" s="2">
-        <f>E74/H74</f>
+        <f>D74/G74</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O74" s="5">
-        <f>H74+I74</f>
+        <f>G74+H74</f>
         <v>1383400</v>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       <c r="B75" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="I75" s="4" t="s">
         <v>285</v>
       </c>
       <c r="O75" s="5"/>
@@ -4323,33 +4323,33 @@
       <c r="B76" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D76" s="1">
+      <c r="C76" s="1">
         <v>42554</v>
       </c>
+      <c r="D76">
+        <v>70000000</v>
+      </c>
       <c r="E76">
-        <v>70000000</v>
+        <v>7</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G76">
-        <v>27</v>
+        <v>1166700</v>
       </c>
       <c r="H76">
-        <v>1166700</v>
-      </c>
-      <c r="I76">
         <v>770000</v>
       </c>
+      <c r="I76" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N76" s="2">
-        <f>E76/H76</f>
+        <f>D76/G76</f>
         <v>59.998285763263908</v>
       </c>
       <c r="O76" s="5">
-        <f>H76+I76</f>
+        <f>G76+H76</f>
         <v>1936700</v>
       </c>
     </row>
@@ -4360,33 +4360,33 @@
       <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D77" s="1">
+      <c r="C77" s="1">
         <v>42555</v>
       </c>
+      <c r="D77">
+        <v>25000000</v>
+      </c>
       <c r="E77">
-        <v>25000000</v>
+        <v>22</v>
       </c>
       <c r="F77">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G77">
-        <v>35</v>
+        <v>694500</v>
       </c>
       <c r="H77">
-        <v>694500</v>
-      </c>
-      <c r="I77">
         <v>275000</v>
       </c>
+      <c r="I77" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N77" s="2">
-        <f>E77/H77</f>
+        <f>D77/G77</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O77" s="5">
-        <f>H77+I77</f>
+        <f>G77+H77</f>
         <v>969500</v>
       </c>
     </row>
@@ -4397,33 +4397,33 @@
       <c r="B78" t="s">
         <v>161</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="C78" s="1">
         <v>42556</v>
       </c>
+      <c r="D78">
+        <v>40000000</v>
+      </c>
       <c r="E78">
-        <v>40000000</v>
+        <v>3</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G78">
-        <v>27</v>
+        <v>833400</v>
       </c>
       <c r="H78">
-        <v>833400</v>
-      </c>
-      <c r="I78">
         <v>402600</v>
       </c>
+      <c r="I78" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N78" s="2">
-        <f>E78/H78</f>
+        <f>D78/G78</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O78" s="5">
-        <f>H78+I78</f>
+        <f>G78+H78</f>
         <v>1236000</v>
       </c>
     </row>
@@ -4434,33 +4434,33 @@
       <c r="B79" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="C79" s="1">
         <v>42557</v>
       </c>
+      <c r="D79">
+        <v>85000000</v>
+      </c>
       <c r="E79">
-        <v>85000000</v>
+        <v>9</v>
       </c>
       <c r="F79">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G79">
-        <v>20</v>
+        <v>1416700</v>
       </c>
       <c r="H79">
-        <v>1416700</v>
-      </c>
-      <c r="I79">
         <v>942500</v>
       </c>
+      <c r="I79" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N79" s="2">
-        <f>E79/H79</f>
+        <f>D79/G79</f>
         <v>59.998588268511327</v>
       </c>
       <c r="O79" s="5">
-        <f>H79+I79</f>
+        <f>G79+H79</f>
         <v>2359200</v>
       </c>
     </row>
@@ -4471,33 +4471,33 @@
       <c r="B80" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D80" s="1">
+      <c r="C80" s="1">
         <v>42558</v>
       </c>
+      <c r="D80">
+        <v>40000000</v>
+      </c>
       <c r="E80">
-        <v>40000000</v>
+        <v>28</v>
       </c>
       <c r="F80">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G80">
-        <v>33</v>
+        <v>833400</v>
       </c>
       <c r="H80">
-        <v>833400</v>
-      </c>
-      <c r="I80">
         <v>387500</v>
       </c>
+      <c r="I80" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N80" s="2">
-        <f>E80/H80</f>
+        <f>D80/G80</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O80" s="5">
-        <f>H80+I80</f>
+        <f>G80+H80</f>
         <v>1220900</v>
       </c>
     </row>
@@ -4508,33 +4508,33 @@
       <c r="B81" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C81" s="1">
         <v>42559</v>
       </c>
+      <c r="D81">
+        <v>105000000</v>
+      </c>
       <c r="E81">
-        <v>105000000</v>
+        <v>11</v>
       </c>
       <c r="F81">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G81">
-        <v>53</v>
+        <v>875000</v>
       </c>
       <c r="H81">
-        <v>875000</v>
-      </c>
-      <c r="I81">
         <v>187100</v>
       </c>
+      <c r="I81" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N81" s="2">
-        <f>E81/H81</f>
+        <f>D81/G81</f>
         <v>120</v>
       </c>
       <c r="O81" s="5">
-        <f>H81+I81</f>
+        <f>G81+H81</f>
         <v>1062100</v>
       </c>
     </row>
@@ -4545,33 +4545,33 @@
       <c r="B82" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82" s="1">
         <v>42560</v>
       </c>
+      <c r="D82">
+        <v>10000000</v>
+      </c>
       <c r="E82">
-        <v>10000000</v>
+        <v>8</v>
       </c>
       <c r="F82">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G82">
-        <v>16</v>
+        <v>416700</v>
       </c>
       <c r="H82">
-        <v>416700</v>
-      </c>
-      <c r="I82">
         <v>18400</v>
       </c>
+      <c r="I82" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N82" s="2">
-        <f>E82/H82</f>
+        <f>D82/G82</f>
         <v>23.998080153587711</v>
       </c>
       <c r="O82" s="5">
-        <f>H82+I82</f>
+        <f>G82+H82</f>
         <v>435100</v>
       </c>
     </row>
@@ -4582,33 +4582,33 @@
       <c r="B83" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="C83" s="1">
         <v>42561</v>
       </c>
+      <c r="D83">
+        <v>100000000</v>
+      </c>
       <c r="E83">
-        <v>100000000</v>
+        <v>29</v>
       </c>
       <c r="F83">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>1666700</v>
       </c>
       <c r="H83">
-        <v>1666700</v>
-      </c>
-      <c r="I83">
         <v>1558400</v>
       </c>
+      <c r="I83" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N83" s="2">
-        <f>E83/H83</f>
+        <f>D83/G83</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O83" s="5">
-        <f>H83+I83</f>
+        <f>G83+H83</f>
         <v>3225100</v>
       </c>
     </row>
@@ -4619,33 +4619,33 @@
       <c r="B84" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="C84" s="1">
         <v>42562</v>
       </c>
+      <c r="D84">
+        <v>50000000</v>
+      </c>
       <c r="E84">
-        <v>50000000</v>
+        <v>19</v>
       </c>
       <c r="F84">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G84">
-        <v>24</v>
+        <v>833400</v>
       </c>
       <c r="H84">
-        <v>833400</v>
-      </c>
-      <c r="I84">
         <v>122200</v>
       </c>
+      <c r="I84" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N84" s="2">
-        <f>E84/H84</f>
+        <f>D84/G84</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O84" s="5">
-        <f>H84+I84</f>
+        <f>G84+H84</f>
         <v>955600</v>
       </c>
     </row>
@@ -4656,33 +4656,33 @@
       <c r="B85" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="C85" s="1">
         <v>42563</v>
       </c>
+      <c r="D85">
+        <v>4500000</v>
+      </c>
       <c r="E85">
-        <v>4500000</v>
+        <v>9</v>
       </c>
       <c r="F85">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>187500</v>
       </c>
       <c r="H85">
-        <v>187500</v>
-      </c>
-      <c r="I85">
         <v>53100</v>
       </c>
+      <c r="I85" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N85" s="2">
-        <f>E85/H85</f>
+        <f>D85/G85</f>
         <v>24</v>
       </c>
       <c r="O85" s="5">
-        <f>H85+I85</f>
+        <f>G85+H85</f>
         <v>240600</v>
       </c>
     </row>
@@ -4693,33 +4693,33 @@
       <c r="B86" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="C86" s="1">
         <v>42564</v>
       </c>
+      <c r="D86">
+        <v>3000000</v>
+      </c>
       <c r="E86">
-        <v>3000000</v>
+        <v>17</v>
       </c>
       <c r="F86">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>125000</v>
       </c>
       <c r="H86">
-        <v>125000</v>
-      </c>
-      <c r="I86">
         <v>33800</v>
       </c>
+      <c r="I86" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N86" s="2">
-        <f>E86/H86</f>
+        <f>D86/G86</f>
         <v>24</v>
       </c>
       <c r="O86" s="5">
-        <f>H86+I86</f>
+        <f>G86+H86</f>
         <v>158800</v>
       </c>
     </row>
@@ -4730,33 +4730,33 @@
       <c r="B87" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D87" s="1">
+      <c r="C87" s="1">
         <v>42565</v>
       </c>
+      <c r="D87">
+        <v>40000000</v>
+      </c>
       <c r="E87">
-        <v>40000000</v>
+        <v>23</v>
       </c>
       <c r="F87">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G87">
-        <v>37</v>
+        <v>833400</v>
       </c>
       <c r="H87">
-        <v>833400</v>
-      </c>
-      <c r="I87">
         <v>135000</v>
       </c>
+      <c r="I87" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N87" s="2">
-        <f>E87/H87</f>
+        <f>D87/G87</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O87" s="5">
-        <f>H87+I87</f>
+        <f>G87+H87</f>
         <v>968400</v>
       </c>
     </row>
@@ -4767,33 +4767,33 @@
       <c r="B88" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88" s="1">
         <v>42566</v>
       </c>
+      <c r="D88">
+        <v>50000000</v>
+      </c>
       <c r="E88">
-        <v>50000000</v>
+        <v>19</v>
       </c>
       <c r="F88">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G88">
-        <v>55</v>
+        <v>833400</v>
       </c>
       <c r="H88">
-        <v>833400</v>
-      </c>
-      <c r="I88">
         <v>120000</v>
       </c>
+      <c r="I88" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N88" s="2">
-        <f>E88/H88</f>
+        <f>D88/G88</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O88" s="5">
-        <f>H88+I88</f>
+        <f>G88+H88</f>
         <v>953400</v>
       </c>
     </row>
@@ -4804,11 +4804,11 @@
       <c r="B89" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D89" s="1">
+      <c r="C89" s="1">
         <v>42567</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O89" s="5"/>
     </row>
@@ -4819,11 +4819,11 @@
       <c r="B90" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D90" s="1">
+      <c r="C90" s="1">
         <v>42568</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O90" s="5"/>
     </row>
@@ -4834,33 +4834,33 @@
       <c r="B91" t="s">
         <v>187</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="C91" s="1">
         <v>42569</v>
       </c>
+      <c r="D91">
+        <v>40000000</v>
+      </c>
       <c r="E91">
-        <v>40000000</v>
+        <v>9</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="G91">
-        <v>49</v>
+        <v>829800</v>
       </c>
       <c r="H91">
-        <v>829800</v>
-      </c>
-      <c r="I91">
         <v>15000</v>
       </c>
+      <c r="I91" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N91" s="2">
-        <f>E91/H91</f>
+        <f>D91/G91</f>
         <v>48.204386599180523</v>
       </c>
       <c r="O91" s="5">
-        <f>H91+I91</f>
+        <f>G91+H91</f>
         <v>844800</v>
       </c>
     </row>
@@ -4871,33 +4871,33 @@
       <c r="B92" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D92" s="1">
+      <c r="C92" s="1">
         <v>42570</v>
       </c>
+      <c r="D92">
+        <v>100000000</v>
+      </c>
       <c r="E92">
-        <v>100000000</v>
+        <v>6</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="G92">
-        <v>48</v>
+        <v>1666700</v>
       </c>
       <c r="H92">
-        <v>1666700</v>
-      </c>
-      <c r="I92">
         <v>418800</v>
       </c>
+      <c r="I92" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N92" s="2">
-        <f>E92/H92</f>
+        <f>D92/G92</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O92" s="5">
-        <f>H92+I92</f>
+        <f>G92+H92</f>
         <v>2085500</v>
       </c>
     </row>
@@ -4908,33 +4908,33 @@
       <c r="B93" t="s">
         <v>191</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93" s="1">
         <v>42571</v>
       </c>
+      <c r="D93">
+        <v>150000000</v>
+      </c>
       <c r="E93">
-        <v>150000000</v>
+        <v>9</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="G93">
-        <v>36</v>
+        <v>2500000</v>
       </c>
       <c r="H93">
-        <v>2500000</v>
-      </c>
-      <c r="I93">
         <v>1260000</v>
       </c>
+      <c r="I93" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N93" s="2">
-        <f>E93/H93</f>
+        <f>D93/G93</f>
         <v>60</v>
       </c>
       <c r="O93" s="5">
-        <f>H93+I93</f>
+        <f>G93+H93</f>
         <v>3760000</v>
       </c>
     </row>
@@ -4945,33 +4945,33 @@
       <c r="B94" t="s">
         <v>193</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D94" s="1">
+      <c r="C94" s="1">
         <v>42572</v>
       </c>
+      <c r="D94">
+        <v>180000000</v>
+      </c>
       <c r="E94">
-        <v>180000000</v>
+        <v>23</v>
       </c>
       <c r="F94">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="G94">
-        <v>48</v>
+        <v>3000000</v>
       </c>
       <c r="H94">
-        <v>3000000</v>
-      </c>
-      <c r="I94">
         <v>522700</v>
       </c>
+      <c r="I94" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N94" s="2">
-        <f>E94/H94</f>
+        <f>D94/G94</f>
         <v>60</v>
       </c>
       <c r="O94" s="5">
-        <f>H94+I94</f>
+        <f>G94+H94</f>
         <v>3522700</v>
       </c>
     </row>
@@ -4982,11 +4982,11 @@
       <c r="B95" t="s">
         <v>195</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D95" s="1">
+      <c r="C95" s="1">
         <v>42573</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O95" s="5"/>
     </row>
@@ -4997,33 +4997,33 @@
       <c r="B96" t="s">
         <v>197</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D96" s="1">
+      <c r="C96" s="1">
         <v>42574</v>
       </c>
+      <c r="D96">
+        <v>60000000</v>
+      </c>
       <c r="E96">
-        <v>60000000</v>
+        <v>6</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="G96">
-        <v>46</v>
+        <v>1000000</v>
       </c>
       <c r="H96">
-        <v>1000000</v>
-      </c>
-      <c r="I96">
         <v>270000</v>
       </c>
+      <c r="I96" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N96" s="2">
-        <f>E96/H96</f>
+        <f>D96/G96</f>
         <v>60</v>
       </c>
       <c r="O96" s="5">
-        <f>H96+I96</f>
+        <f>G96+H96</f>
         <v>1270000</v>
       </c>
     </row>
@@ -5034,33 +5034,33 @@
       <c r="B97" t="s">
         <v>199</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="1">
         <v>42575</v>
       </c>
+      <c r="D97">
+        <v>50000000</v>
+      </c>
       <c r="E97">
-        <v>50000000</v>
+        <v>8</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="G97">
-        <v>41</v>
+        <v>833400</v>
       </c>
       <c r="H97">
-        <v>833400</v>
-      </c>
-      <c r="I97">
         <v>225000</v>
       </c>
+      <c r="I97" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N97" s="2">
-        <f>E97/H97</f>
+        <f>D97/G97</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O97" s="5">
-        <f>H97+I97</f>
+        <f>G97+H97</f>
         <v>1058400</v>
       </c>
     </row>
@@ -5071,33 +5071,33 @@
       <c r="B98" t="s">
         <v>201</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D98" s="1">
+      <c r="C98" s="1">
         <v>42576</v>
       </c>
+      <c r="D98">
+        <v>40000000</v>
+      </c>
       <c r="E98">
-        <v>40000000</v>
+        <v>17</v>
       </c>
       <c r="F98">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G98">
-        <v>19</v>
+        <v>833400</v>
       </c>
       <c r="H98">
-        <v>833400</v>
-      </c>
-      <c r="I98">
         <v>101100</v>
       </c>
+      <c r="I98" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N98" s="2">
-        <f>E98/H98</f>
+        <f>D98/G98</f>
         <v>47.996160307175423</v>
       </c>
       <c r="O98" s="5">
-        <f>H98+I98</f>
+        <f>G98+H98</f>
         <v>934500</v>
       </c>
     </row>
@@ -5108,33 +5108,33 @@
       <c r="B99" t="s">
         <v>203</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D99" s="1">
+      <c r="C99" s="1">
         <v>42577</v>
       </c>
+      <c r="D99">
+        <v>100000000</v>
+      </c>
       <c r="E99">
-        <v>100000000</v>
+        <v>28</v>
       </c>
       <c r="F99">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G99">
-        <v>46</v>
+        <v>1666700</v>
       </c>
       <c r="H99">
-        <v>1666700</v>
-      </c>
-      <c r="I99">
         <v>146500</v>
       </c>
+      <c r="I99" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N99" s="2">
-        <f>E99/H99</f>
+        <f>D99/G99</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O99" s="5">
-        <f>H99+I99</f>
+        <f>G99+H99</f>
         <v>1813200</v>
       </c>
     </row>
@@ -5145,33 +5145,33 @@
       <c r="B100" t="s">
         <v>205</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100" s="1">
         <v>42578</v>
       </c>
+      <c r="D100">
+        <v>110000000</v>
+      </c>
       <c r="E100">
-        <v>110000000</v>
+        <v>22</v>
       </c>
       <c r="F100">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="G100">
-        <v>36</v>
+        <v>1833400</v>
       </c>
       <c r="H100">
-        <v>1833400</v>
-      </c>
-      <c r="I100">
         <v>529000</v>
       </c>
+      <c r="I100" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N100" s="2">
-        <f>E100/H100</f>
+        <f>D100/G100</f>
         <v>59.997818261154137</v>
       </c>
       <c r="O100" s="5">
-        <f>H100+I100</f>
+        <f>G100+H100</f>
         <v>2362400</v>
       </c>
     </row>
@@ -5182,33 +5182,33 @@
       <c r="B101" t="s">
         <v>193</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="C101" s="1">
         <v>42579</v>
       </c>
+      <c r="D101">
+        <v>250000000</v>
+      </c>
       <c r="E101">
-        <v>250000000</v>
+        <v>8</v>
       </c>
       <c r="F101">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G101">
-        <v>47</v>
+        <v>4166700</v>
       </c>
       <c r="H101">
-        <v>4166700</v>
-      </c>
-      <c r="I101">
         <v>709100</v>
       </c>
+      <c r="I101" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N101" s="2">
-        <f>E101/H101</f>
+        <f>D101/G101</f>
         <v>59.999520003839969</v>
       </c>
       <c r="O101" s="5">
-        <f>H101+I101</f>
+        <f>G101+H101</f>
         <v>4875800</v>
       </c>
     </row>
@@ -5219,33 +5219,33 @@
       <c r="B102" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D102" s="1">
+      <c r="C102" s="1">
         <v>42580</v>
       </c>
+      <c r="D102">
+        <v>20000000</v>
+      </c>
       <c r="E102">
-        <v>20000000</v>
+        <v>25</v>
       </c>
       <c r="F102">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G102">
-        <v>24</v>
+        <v>555600</v>
       </c>
       <c r="H102">
-        <v>555600</v>
-      </c>
-      <c r="I102">
         <v>110000</v>
       </c>
+      <c r="I102" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N102" s="2">
-        <f>E102/H102</f>
+        <f>D102/G102</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O102" s="5">
-        <f>H102+I102</f>
+        <f>G102+H102</f>
         <v>665600</v>
       </c>
     </row>
@@ -5256,33 +5256,33 @@
       <c r="B103" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="C103" s="1">
         <v>42581</v>
       </c>
+      <c r="D103">
+        <v>45000000</v>
+      </c>
       <c r="E103">
-        <v>45000000</v>
+        <v>13</v>
       </c>
       <c r="F103">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="G103">
-        <v>39</v>
+        <v>937500</v>
       </c>
       <c r="H103">
-        <v>937500</v>
-      </c>
-      <c r="I103">
         <v>101200</v>
       </c>
+      <c r="I103" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N103" s="2">
-        <f>E103/H103</f>
+        <f>D103/G103</f>
         <v>48</v>
       </c>
       <c r="O103" s="5">
-        <f>H103+I103</f>
+        <f>G103+H103</f>
         <v>1038700</v>
       </c>
     </row>
@@ -5293,33 +5293,33 @@
       <c r="B104" t="s">
         <v>212</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104" s="1">
         <v>42582</v>
       </c>
+      <c r="D104">
+        <v>60000000</v>
+      </c>
       <c r="E104">
-        <v>60000000</v>
+        <v>14</v>
       </c>
       <c r="F104">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="G104">
-        <v>32</v>
+        <v>1000000</v>
       </c>
       <c r="H104">
-        <v>1000000</v>
-      </c>
-      <c r="I104">
         <v>507400</v>
       </c>
+      <c r="I104" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N104" s="2">
-        <f>E104/H104</f>
+        <f>D104/G104</f>
         <v>60</v>
       </c>
       <c r="O104" s="5">
-        <f>H104+I104</f>
+        <f>G104+H104</f>
         <v>1507400</v>
       </c>
     </row>
@@ -5330,33 +5330,33 @@
       <c r="B105" t="s">
         <v>214</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D105" s="1">
+      <c r="C105" s="1">
         <v>42583</v>
       </c>
+      <c r="D105">
+        <v>80000000</v>
+      </c>
       <c r="E105">
-        <v>80000000</v>
+        <v>25</v>
       </c>
       <c r="F105">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G105">
-        <v>23</v>
+        <v>1333400</v>
       </c>
       <c r="H105">
-        <v>1333400</v>
-      </c>
-      <c r="I105">
         <v>528000</v>
       </c>
+      <c r="I105" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N105" s="2">
-        <f>E105/H105</f>
+        <f>D105/G105</f>
         <v>59.997000149992502</v>
       </c>
       <c r="O105" s="5">
-        <f>H105+I105</f>
+        <f>G105+H105</f>
         <v>1861400</v>
       </c>
     </row>
@@ -5367,33 +5367,33 @@
       <c r="B106" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D106" s="1">
+      <c r="C106" s="1">
         <v>42584</v>
       </c>
+      <c r="D106">
+        <v>60000000</v>
+      </c>
       <c r="E106">
-        <v>60000000</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G106">
-        <v>35</v>
+        <v>1000000</v>
       </c>
       <c r="H106">
-        <v>1000000</v>
-      </c>
-      <c r="I106">
         <v>399000</v>
       </c>
+      <c r="I106" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N106" s="2">
-        <f>E106/H106</f>
+        <f>D106/G106</f>
         <v>60</v>
       </c>
       <c r="O106" s="5">
-        <f>H106+I106</f>
+        <f>G106+H106</f>
         <v>1399000</v>
       </c>
     </row>
@@ -5404,33 +5404,33 @@
       <c r="B107" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="1">
+      <c r="C107" s="1">
         <v>42585</v>
       </c>
+      <c r="D107">
+        <v>79000000</v>
+      </c>
       <c r="E107">
-        <v>79000000</v>
+        <v>29</v>
       </c>
       <c r="F107">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G107">
-        <v>21</v>
+        <v>1316700</v>
       </c>
       <c r="H107">
-        <v>1316700</v>
-      </c>
-      <c r="I107">
         <v>1280200</v>
       </c>
+      <c r="I107" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N107" s="2">
-        <f>E107/H107</f>
+        <f>D107/G107</f>
         <v>59.998481051112627</v>
       </c>
       <c r="O107" s="5">
-        <f>H107+I107</f>
+        <f>G107+H107</f>
         <v>2596900</v>
       </c>
     </row>
@@ -5441,11 +5441,11 @@
       <c r="B108" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D108" s="1">
+      <c r="C108" s="1">
         <v>42586</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O108" s="5"/>
     </row>
@@ -5456,33 +5456,33 @@
       <c r="B109" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="C109" s="1">
         <v>42587</v>
       </c>
+      <c r="D109">
+        <v>90000000</v>
+      </c>
       <c r="E109">
-        <v>90000000</v>
+        <v>4</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G109">
-        <v>26</v>
+        <v>1875000</v>
       </c>
       <c r="H109">
-        <v>1875000</v>
-      </c>
-      <c r="I109">
         <v>836000</v>
       </c>
+      <c r="I109" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N109" s="2">
-        <f>E109/H109</f>
+        <f>D109/G109</f>
         <v>48</v>
       </c>
       <c r="O109" s="5">
-        <f>H109+I109</f>
+        <f>G109+H109</f>
         <v>2711000</v>
       </c>
     </row>
@@ -5493,33 +5493,33 @@
       <c r="B110" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D110" s="1">
+      <c r="C110" s="1">
         <v>42588</v>
       </c>
+      <c r="D110">
+        <v>650000000</v>
+      </c>
       <c r="E110">
-        <v>650000000</v>
+        <v>16</v>
       </c>
       <c r="F110">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G110">
-        <v>35</v>
+        <v>10833400</v>
       </c>
       <c r="H110">
-        <v>10833400</v>
-      </c>
-      <c r="I110">
         <v>3690000</v>
       </c>
+      <c r="I110" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N110" s="2">
-        <f>E110/H110</f>
+        <f>D110/G110</f>
         <v>59.999630771502943</v>
       </c>
       <c r="O110" s="5">
-        <f>H110+I110</f>
+        <f>G110+H110</f>
         <v>14523400</v>
       </c>
     </row>
@@ -5530,33 +5530,33 @@
       <c r="B111" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D111" s="1">
+      <c r="C111" s="1">
         <v>42589</v>
       </c>
+      <c r="D111">
+        <v>50000000</v>
+      </c>
       <c r="E111">
-        <v>50000000</v>
+        <v>4</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>40</v>
+        <v>833400</v>
       </c>
       <c r="H111">
-        <v>833400</v>
-      </c>
-      <c r="I111">
         <v>342900</v>
       </c>
+      <c r="I111" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N111" s="2">
-        <f>E111/H111</f>
+        <f>D111/G111</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O111" s="5">
-        <f>H111+I111</f>
+        <f>G111+H111</f>
         <v>1176300</v>
       </c>
     </row>
@@ -5567,33 +5567,33 @@
       <c r="B112" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="C112" s="1">
         <v>42590</v>
       </c>
+      <c r="D112">
+        <v>50000000</v>
+      </c>
       <c r="E112">
-        <v>50000000</v>
+        <v>17</v>
       </c>
       <c r="F112">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G112">
-        <v>25</v>
+        <v>1041700</v>
       </c>
       <c r="H112">
-        <v>1041700</v>
-      </c>
-      <c r="I112">
         <v>252700</v>
       </c>
+      <c r="I112" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N112" s="2">
-        <f>E112/H112</f>
+        <f>D112/G112</f>
         <v>47.998464049150428</v>
       </c>
       <c r="O112" s="5">
-        <f>H112+I112</f>
+        <f>G112+H112</f>
         <v>1294400</v>
       </c>
     </row>
@@ -5604,33 +5604,33 @@
       <c r="B113" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D113" s="1">
+      <c r="C113" s="1">
         <v>42591</v>
       </c>
+      <c r="D113">
+        <v>100000000</v>
+      </c>
       <c r="E113">
-        <v>100000000</v>
+        <v>18</v>
       </c>
       <c r="F113">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G113">
-        <v>40</v>
+        <v>1666700</v>
       </c>
       <c r="H113">
-        <v>1666700</v>
-      </c>
-      <c r="I113">
         <v>248400</v>
       </c>
+      <c r="I113" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N113" s="2">
-        <f>E113/H113</f>
+        <f>D113/G113</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O113" s="5">
-        <f>H113+I113</f>
+        <f>G113+H113</f>
         <v>1915100</v>
       </c>
     </row>
@@ -5641,33 +5641,33 @@
       <c r="B114" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="C114" s="1">
         <v>42592</v>
       </c>
+      <c r="D114">
+        <v>35000000</v>
+      </c>
       <c r="E114">
-        <v>35000000</v>
+        <v>4</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G114">
-        <v>26</v>
+        <v>729200</v>
       </c>
       <c r="H114">
-        <v>729200</v>
-      </c>
-      <c r="I114">
         <v>246000</v>
       </c>
+      <c r="I114" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N114" s="2">
-        <f>E114/H114</f>
+        <f>D114/G114</f>
         <v>47.997805814591331</v>
       </c>
       <c r="O114" s="5">
-        <f>H114+I114</f>
+        <f>G114+H114</f>
         <v>975200</v>
       </c>
     </row>
@@ -5678,33 +5678,33 @@
       <c r="B115" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D115" s="1">
+      <c r="C115" s="1">
         <v>42593</v>
       </c>
+      <c r="D115">
+        <v>100000000</v>
+      </c>
       <c r="E115">
-        <v>100000000</v>
+        <v>3</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G115">
-        <v>36</v>
+        <v>1666700</v>
       </c>
       <c r="H115">
-        <v>1666700</v>
-      </c>
-      <c r="I115">
         <v>753900</v>
       </c>
+      <c r="I115" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N115" s="2">
-        <f>E115/H115</f>
+        <f>D115/G115</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O115" s="5">
-        <f>H115+I115</f>
+        <f>G115+H115</f>
         <v>2420600</v>
       </c>
     </row>
@@ -5715,33 +5715,33 @@
       <c r="B116" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D116" s="1">
+      <c r="C116" s="1">
         <v>42594</v>
       </c>
+      <c r="D116">
+        <v>50000000</v>
+      </c>
       <c r="E116">
-        <v>50000000</v>
+        <v>10</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G116">
-        <v>19</v>
+        <v>1388900</v>
       </c>
       <c r="H116">
-        <v>1388900</v>
-      </c>
-      <c r="I116">
         <v>420600</v>
       </c>
+      <c r="I116" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N116" s="2">
-        <f>E116/H116</f>
+        <f>D116/G116</f>
         <v>35.99971200230398</v>
       </c>
       <c r="O116" s="5">
-        <f>H116+I116</f>
+        <f>G116+H116</f>
         <v>1809500</v>
       </c>
     </row>
@@ -5752,11 +5752,11 @@
       <c r="B117" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D117" s="1">
+      <c r="C117" s="1">
         <v>42595</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O117" s="5"/>
     </row>
@@ -5767,33 +5767,33 @@
       <c r="B118" t="s">
         <v>240</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D118" s="1">
+      <c r="C118" s="1">
         <v>42596</v>
       </c>
+      <c r="D118">
+        <v>60000000</v>
+      </c>
       <c r="E118">
-        <v>60000000</v>
+        <v>30</v>
       </c>
       <c r="F118">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G118">
-        <v>37</v>
+        <v>1250000</v>
       </c>
       <c r="H118">
-        <v>1250000</v>
-      </c>
-      <c r="I118">
         <v>292200</v>
       </c>
+      <c r="I118" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N118" s="2">
-        <f>E118/H118</f>
+        <f>D118/G118</f>
         <v>48</v>
       </c>
       <c r="O118" s="5">
-        <f>H118+I118</f>
+        <f>G118+H118</f>
         <v>1542200</v>
       </c>
     </row>
@@ -5804,11 +5804,11 @@
       <c r="B119" t="s">
         <v>242</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D119" s="1">
+      <c r="C119" s="1">
         <v>42597</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O119" s="5"/>
     </row>
@@ -5819,33 +5819,33 @@
       <c r="B120" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D120" s="1">
+      <c r="C120" s="1">
         <v>42598</v>
       </c>
+      <c r="D120">
+        <v>50000000</v>
+      </c>
       <c r="E120">
-        <v>50000000</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G120">
-        <v>34</v>
+        <v>1388900</v>
       </c>
       <c r="H120">
-        <v>1388900</v>
-      </c>
-      <c r="I120">
         <v>75000</v>
       </c>
+      <c r="I120" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N120" s="2">
-        <f>E120/H120</f>
+        <f>D120/G120</f>
         <v>35.99971200230398</v>
       </c>
       <c r="O120" s="5">
-        <f>H120+I120</f>
+        <f>G120+H120</f>
         <v>1463900</v>
       </c>
     </row>
@@ -5856,33 +5856,33 @@
       <c r="B121" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D121" s="1">
+      <c r="C121" s="1">
         <v>42599</v>
       </c>
+      <c r="D121">
+        <v>85000000</v>
+      </c>
       <c r="E121">
-        <v>85000000</v>
+        <v>5</v>
       </c>
       <c r="F121">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G121">
-        <v>29</v>
+        <v>2361200</v>
       </c>
       <c r="H121">
-        <v>2361200</v>
-      </c>
-      <c r="I121">
         <v>575400</v>
       </c>
+      <c r="I121" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N121" s="2">
-        <f>E121/H121</f>
+        <f>D121/G121</f>
         <v>35.998644756903268</v>
       </c>
       <c r="O121" s="5">
-        <f>H121+I121</f>
+        <f>G121+H121</f>
         <v>2936600</v>
       </c>
     </row>
@@ -5893,33 +5893,33 @@
       <c r="B122" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D122" s="1">
+      <c r="C122" s="1">
         <v>42600</v>
       </c>
+      <c r="D122">
+        <v>75000000</v>
+      </c>
       <c r="E122">
-        <v>75000000</v>
+        <v>18</v>
       </c>
       <c r="F122">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G122">
-        <v>24</v>
+        <v>1250000</v>
       </c>
       <c r="H122">
-        <v>1250000</v>
-      </c>
-      <c r="I122">
         <v>774400</v>
       </c>
+      <c r="I122" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N122" s="2">
-        <f>E122/H122</f>
+        <f>D122/G122</f>
         <v>60</v>
       </c>
       <c r="O122" s="5">
-        <f>H122+I122</f>
+        <f>G122+H122</f>
         <v>2024400</v>
       </c>
     </row>
@@ -5930,33 +5930,33 @@
       <c r="B123" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" s="1">
+      <c r="C123" s="1">
         <v>42601</v>
       </c>
+      <c r="D123">
+        <v>50000000</v>
+      </c>
       <c r="E123">
-        <v>50000000</v>
+        <v>19</v>
       </c>
       <c r="F123">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G123">
-        <v>39</v>
+        <v>1388900</v>
       </c>
       <c r="H123">
-        <v>1388900</v>
-      </c>
-      <c r="I123">
         <v>74600</v>
       </c>
+      <c r="I123" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N123" s="2">
-        <f>E123/H123</f>
+        <f>D123/G123</f>
         <v>35.99971200230398</v>
       </c>
       <c r="O123" s="5">
-        <f>H123+I123</f>
+        <f>G123+H123</f>
         <v>1463500</v>
       </c>
     </row>
@@ -5967,33 +5967,33 @@
       <c r="B124" t="s">
         <v>252</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D124" s="1">
+      <c r="C124" s="1">
         <v>42602</v>
       </c>
+      <c r="D124">
+        <v>25000000</v>
+      </c>
       <c r="E124">
-        <v>25000000</v>
+        <v>19</v>
       </c>
       <c r="F124">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G124">
-        <v>25</v>
+        <v>694500</v>
       </c>
       <c r="H124">
-        <v>694500</v>
-      </c>
-      <c r="I124">
         <v>79000</v>
       </c>
+      <c r="I124" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N124" s="2">
-        <f>E124/H124</f>
+        <f>D124/G124</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O124" s="5">
-        <f>H124+I124</f>
+        <f>G124+H124</f>
         <v>773500</v>
       </c>
     </row>
@@ -6004,33 +6004,33 @@
       <c r="B125" t="s">
         <v>254</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D125" s="1">
+      <c r="C125" s="1">
         <v>42603</v>
       </c>
+      <c r="D125">
+        <v>50000000</v>
+      </c>
       <c r="E125">
-        <v>50000000</v>
+        <v>25</v>
       </c>
       <c r="F125">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G125">
-        <v>21</v>
+        <v>833400</v>
       </c>
       <c r="H125">
-        <v>833400</v>
-      </c>
-      <c r="I125">
         <v>405000</v>
       </c>
+      <c r="I125" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N125" s="2">
-        <f>E125/H125</f>
+        <f>D125/G125</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O125" s="5">
-        <f>H125+I125</f>
+        <f>G125+H125</f>
         <v>1238400</v>
       </c>
     </row>
@@ -6041,11 +6041,11 @@
       <c r="B126" t="s">
         <v>256</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D126" s="1">
+      <c r="C126" s="1">
         <v>42604</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O126" s="5"/>
     </row>
@@ -6056,33 +6056,33 @@
       <c r="B127" t="s">
         <v>258</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D127" s="1">
+      <c r="C127" s="1">
         <v>42605</v>
       </c>
+      <c r="D127">
+        <v>100000000</v>
+      </c>
       <c r="E127">
-        <v>100000000</v>
+        <v>18</v>
       </c>
       <c r="F127">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G127">
-        <v>31</v>
+        <v>1666700</v>
       </c>
       <c r="H127">
-        <v>1666700</v>
-      </c>
-      <c r="I127">
         <v>840100</v>
       </c>
+      <c r="I127" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N127" s="2">
-        <f>E127/H127</f>
+        <f>D127/G127</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O127" s="5">
-        <f>H127+I127</f>
+        <f>G127+H127</f>
         <v>2506800</v>
       </c>
     </row>
@@ -6093,33 +6093,33 @@
       <c r="B128" t="s">
         <v>260</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D128" s="1">
+      <c r="C128" s="1">
         <v>42606</v>
       </c>
+      <c r="D128">
+        <v>25000000</v>
+      </c>
       <c r="E128">
-        <v>25000000</v>
+        <v>30</v>
       </c>
       <c r="F128">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G128">
-        <v>11</v>
+        <v>694500</v>
       </c>
       <c r="H128">
-        <v>694500</v>
-      </c>
-      <c r="I128">
         <v>449300</v>
       </c>
+      <c r="I128" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N128" s="2">
-        <f>E128/H128</f>
+        <f>D128/G128</f>
         <v>35.997120230381569</v>
       </c>
       <c r="O128" s="5">
-        <f>H128+I128</f>
+        <f>G128+H128</f>
         <v>1143800</v>
       </c>
     </row>
@@ -6130,33 +6130,33 @@
       <c r="B129" t="s">
         <v>262</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D129" s="1">
+      <c r="C129" s="1">
         <v>42607</v>
       </c>
+      <c r="D129">
+        <v>100000000</v>
+      </c>
       <c r="E129">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G129">
-        <v>24</v>
+        <v>1666700</v>
       </c>
       <c r="H129">
-        <v>1666700</v>
-      </c>
-      <c r="I129">
         <v>1020000</v>
       </c>
+      <c r="I129" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N129" s="2">
-        <f>E129/H129</f>
+        <f>D129/G129</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O129" s="5">
-        <f>H129+I129</f>
+        <f>G129+H129</f>
         <v>2686700</v>
       </c>
     </row>
@@ -6167,33 +6167,33 @@
       <c r="B130" t="s">
         <v>264</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="1">
+      <c r="C130" s="1">
         <v>42608</v>
       </c>
+      <c r="D130">
+        <v>100000000</v>
+      </c>
       <c r="E130">
-        <v>100000000</v>
+        <v>21</v>
       </c>
       <c r="F130">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G130">
-        <v>30</v>
+        <v>1666700</v>
       </c>
       <c r="H130">
-        <v>1666700</v>
-      </c>
-      <c r="I130">
         <v>1162900</v>
       </c>
+      <c r="I130" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N130" s="2">
-        <f>E130/H130</f>
+        <f>D130/G130</f>
         <v>59.998800023999522</v>
       </c>
       <c r="O130" s="5">
-        <f>H130+I130</f>
+        <f>G130+H130</f>
         <v>2829600</v>
       </c>
     </row>
@@ -6204,33 +6204,33 @@
       <c r="B131" t="s">
         <v>266</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D131" s="1">
+      <c r="C131" s="1">
         <v>42609</v>
       </c>
+      <c r="D131">
+        <v>35000000</v>
+      </c>
       <c r="E131">
-        <v>35000000</v>
+        <v>29</v>
       </c>
       <c r="F131">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G131">
-        <v>33</v>
+        <v>729200</v>
       </c>
       <c r="H131">
-        <v>729200</v>
-      </c>
-      <c r="I131">
         <v>115200</v>
       </c>
+      <c r="I131" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N131" s="2">
-        <f>E131/H131</f>
+        <f>D131/G131</f>
         <v>47.997805814591331</v>
       </c>
       <c r="O131" s="5">
-        <f>H131+I131</f>
+        <f>G131+H131</f>
         <v>844400</v>
       </c>
     </row>
@@ -6241,11 +6241,11 @@
       <c r="B132" t="s">
         <v>268</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D132" s="1">
+      <c r="C132" s="1">
         <v>42610</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="O132" s="5"/>
     </row>
@@ -6256,33 +6256,33 @@
       <c r="B133" t="s">
         <v>270</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D133" s="1">
+      <c r="C133" s="1">
         <v>42611</v>
       </c>
+      <c r="D133">
+        <v>17000000</v>
+      </c>
       <c r="E133">
-        <v>17000000</v>
+        <v>26</v>
       </c>
       <c r="F133">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G133">
-        <v>33</v>
+        <v>331700</v>
       </c>
       <c r="H133">
-        <v>331700</v>
-      </c>
-      <c r="I133">
         <v>6000</v>
       </c>
+      <c r="I133" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N133" s="2">
-        <f>E133/H133</f>
+        <f>D133/G133</f>
         <v>51.251130539644258</v>
       </c>
       <c r="O133" s="5">
-        <f>H133+I133</f>
+        <f>G133+H133</f>
         <v>337700</v>
       </c>
     </row>
@@ -6293,33 +6293,33 @@
       <c r="B134" t="s">
         <v>272</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D134" s="1">
+      <c r="C134" s="1">
         <v>42612</v>
       </c>
+      <c r="D134">
+        <v>154700000</v>
+      </c>
       <c r="E134">
-        <v>154700000</v>
+        <v>29</v>
       </c>
       <c r="F134">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G134">
-        <v>39</v>
+        <v>3223000</v>
       </c>
       <c r="H134">
-        <v>3223000</v>
-      </c>
-      <c r="I134">
         <v>638100</v>
       </c>
+      <c r="I134" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N134" s="2">
-        <f>E134/H134</f>
+        <f>D134/G134</f>
         <v>47.998758920260627</v>
       </c>
       <c r="O134" s="5">
-        <f>H134+I134</f>
+        <f>G134+H134</f>
         <v>3861100</v>
       </c>
     </row>
@@ -6330,33 +6330,33 @@
       <c r="B135" t="s">
         <v>274</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D135" s="1">
+      <c r="C135" s="1">
         <v>42613</v>
       </c>
+      <c r="D135">
+        <v>70000000</v>
+      </c>
       <c r="E135">
-        <v>70000000</v>
+        <v>23</v>
       </c>
       <c r="F135">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G135">
-        <v>49</v>
+        <v>1166700</v>
       </c>
       <c r="H135">
-        <v>1166700</v>
-      </c>
-      <c r="I135">
         <v>303400</v>
       </c>
+      <c r="I135" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N135" s="2">
-        <f>E135/H135</f>
+        <f>D135/G135</f>
         <v>59.998285763263908</v>
       </c>
       <c r="O135" s="5">
-        <f>H135+I135</f>
+        <f>G135+H135</f>
         <v>1470100</v>
       </c>
     </row>
@@ -6367,33 +6367,33 @@
       <c r="B136" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D136" s="1">
+      <c r="C136" s="1">
         <v>42614</v>
       </c>
+      <c r="D136">
+        <v>75000000</v>
+      </c>
       <c r="E136">
-        <v>75000000</v>
+        <v>5</v>
       </c>
       <c r="F136">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G136">
-        <v>44</v>
+        <v>1250000</v>
       </c>
       <c r="H136">
-        <v>1250000</v>
-      </c>
-      <c r="I136">
         <v>461700</v>
       </c>
+      <c r="I136" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N136" s="2">
-        <f>E136/H136</f>
+        <f>D136/G136</f>
         <v>60</v>
       </c>
       <c r="O136" s="5">
-        <f>H136+I136</f>
+        <f>G136+H136</f>
         <v>1711700</v>
       </c>
     </row>
@@ -6404,33 +6404,33 @@
       <c r="B137" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D137" s="1">
+      <c r="C137" s="1">
         <v>42615</v>
       </c>
+      <c r="D137">
+        <v>50000000</v>
+      </c>
       <c r="E137">
-        <v>50000000</v>
+        <v>16</v>
       </c>
       <c r="F137">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G137">
-        <v>25</v>
+        <v>833400</v>
       </c>
       <c r="H137">
-        <v>833400</v>
-      </c>
-      <c r="I137">
         <v>209300</v>
       </c>
+      <c r="I137" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N137" s="2">
-        <f>E137/H137</f>
+        <f>D137/G137</f>
         <v>59.995200383969284</v>
       </c>
       <c r="O137" s="5">
-        <f>H137+I137</f>
+        <f>G137+H137</f>
         <v>1042700</v>
       </c>
     </row>
@@ -6441,33 +6441,33 @@
       <c r="B138" t="s">
         <v>280</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D138" s="1">
+      <c r="C138" s="1">
         <v>42616</v>
       </c>
+      <c r="D138">
+        <v>55000000</v>
+      </c>
       <c r="E138">
-        <v>55000000</v>
+        <v>21</v>
       </c>
       <c r="F138">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G138">
-        <v>28</v>
+        <v>916700</v>
       </c>
       <c r="H138">
-        <v>916700</v>
-      </c>
-      <c r="I138">
         <v>375000</v>
       </c>
+      <c r="I138" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N138" s="2">
-        <f>E138/H138</f>
+        <f>D138/G138</f>
         <v>59.997818261154137</v>
       </c>
       <c r="O138" s="5">
-        <f>H138+I138</f>
+        <f>G138+H138</f>
         <v>1291700</v>
       </c>
     </row>
@@ -6478,33 +6478,33 @@
       <c r="B139" t="s">
         <v>282</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" s="1">
+      <c r="C139" s="1">
         <v>42617</v>
       </c>
+      <c r="D139">
+        <v>75000000</v>
+      </c>
       <c r="E139">
-        <v>75000000</v>
+        <v>30</v>
       </c>
       <c r="F139">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G139">
-        <v>32</v>
+        <v>1250000</v>
       </c>
       <c r="H139">
-        <v>1250000</v>
-      </c>
-      <c r="I139">
         <v>725000</v>
       </c>
+      <c r="I139" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N139" s="2">
-        <f>E139/H139</f>
+        <f>D139/G139</f>
         <v>60</v>
       </c>
       <c r="O139" s="5">
-        <f>H139+I139</f>
+        <f>G139+H139</f>
         <v>1975000</v>
       </c>
     </row>
@@ -6515,33 +6515,33 @@
       <c r="B140" t="s">
         <v>284</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D140" s="1">
+      <c r="C140" s="1">
         <v>42618</v>
       </c>
+      <c r="D140">
+        <v>35600000</v>
+      </c>
       <c r="E140">
-        <v>35600000</v>
+        <v>7</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G140">
-        <v>14</v>
+        <v>7120000</v>
       </c>
       <c r="H140">
-        <v>7120000</v>
-      </c>
-      <c r="I140">
         <v>333500</v>
       </c>
+      <c r="I140" s="4" t="s">
+        <v>285</v>
+      </c>
       <c r="N140" s="2">
-        <f>E140/H140</f>
+        <f>D140/G140</f>
         <v>5</v>
       </c>
       <c r="O140" s="5">
-        <f>H140+I140</f>
+        <f>G140+H140</f>
         <v>7453500</v>
       </c>
     </row>
